--- a/data/noktalar.xlsx
+++ b/data/noktalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Distance_to_Marker 3</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,19 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.98772762974018</v>
+        <v>39.99614249262809</v>
       </c>
       <c r="C2" t="n">
-        <v>32.68295288085938</v>
+        <v>32.74475097656251</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.20133491747606</v>
+        <v>18.53009327987471</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30572555864671</v>
+        <v>21.99929056288564</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26.2550048687496</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.84135394434256</v>
+        <v>39.92037141027886</v>
       </c>
       <c r="C3" t="n">
-        <v>32.84225463867188</v>
+        <v>32.93838500976563</v>
       </c>
       <c r="D3" t="n">
-        <v>21.20133491747606</v>
+        <v>18.53009327987471</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.63014263056539</v>
+        <v>36.54784077744851</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.27291819210394</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +527,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.9632</v>
+        <v>39.91405336405187</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8597</v>
+        <v>32.50991821289063</v>
       </c>
       <c r="D4" t="n">
-        <v>15.30572555864671</v>
+        <v>21.99929056288564</v>
       </c>
       <c r="E4" t="n">
-        <v>13.63014263056539</v>
+        <v>36.54784077744851</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34.4550691396471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Marker 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>39.78229487301079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.87521362304688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.2550048687496</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.27291819210394</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.4550691396471</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/noktalar.xlsx
+++ b/data/noktalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,56 @@
           <t>Distance_to_Marker 4</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 10</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 12</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 13</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Distance_to_Marker 14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,22 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.99614249262809</v>
+        <v>39.98351980953353</v>
       </c>
       <c r="C2" t="n">
-        <v>32.74475097656251</v>
+        <v>32.76672363281251</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.53009327987471</v>
+        <v>14.02622392809405</v>
       </c>
       <c r="F2" t="n">
-        <v>21.99929056288564</v>
+        <v>12.8365305776661</v>
       </c>
       <c r="G2" t="n">
-        <v>26.2550048687496</v>
+        <v>16.0403050299895</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.92949887592257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.26350632319487</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.99701676670199</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.43599768611231</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.735164268845272</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.605357690125437</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17.18626578196804</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12.14438949874312</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.705068742595198</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24.23970964445575</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.92037141027886</v>
+        <v>39.95616266131658</v>
       </c>
       <c r="C3" t="n">
-        <v>32.93838500976563</v>
+        <v>32.92739868164063</v>
       </c>
       <c r="D3" t="n">
-        <v>18.53009327987471</v>
+        <v>14.02622392809405</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36.54784077744851</v>
+        <v>23.77050986742281</v>
       </c>
       <c r="G3" t="n">
-        <v>16.27291819210394</v>
+        <v>9.854266866996758</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.14657491813815</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.74647657458805</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.00950789718274</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27.8589969195219</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.8447128731429</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.803453351639933</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16.8715276650384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11.44444728543585</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19.72571872173262</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18.7076870009113</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.91405336405187</v>
+        <v>39.90457520183369</v>
       </c>
       <c r="C4" t="n">
-        <v>32.50991821289063</v>
+        <v>32.65686035156251</v>
       </c>
       <c r="D4" t="n">
-        <v>21.99929056288564</v>
+        <v>12.8365305776661</v>
       </c>
       <c r="E4" t="n">
-        <v>36.54784077744851</v>
+        <v>23.77050986742281</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.4550691396471</v>
+        <v>19.9953729919085</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.725559984336027</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.51483639086079</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.69214672524482</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.661135997703409</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.962986249726701</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19.11094204665745</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.45582031733371</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24.96305879727041</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10.99943845958362</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24.12436553288269</v>
       </c>
     </row>
     <row r="5">
@@ -552,21 +692,601 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.78229487301079</v>
+        <v>39.87297185710501</v>
       </c>
       <c r="C5" t="n">
-        <v>32.87521362304688</v>
+        <v>32.88757324218751</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2550048687496</v>
+        <v>16.0403050299895</v>
       </c>
       <c r="E5" t="n">
-        <v>16.27291819210394</v>
+        <v>9.854266866996758</v>
       </c>
       <c r="F5" t="n">
-        <v>34.4550691396471</v>
+        <v>19.9953729919085</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.03675503746823</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.32165826097568</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.01688680190474</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.25162012660028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.11941406360944</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.58396868841886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.836168085167403</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19.9088493089766</v>
+      </c>
+      <c r="P5" t="n">
+        <v>20.99178711678273</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.301812684991384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Marker 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39.8318657301829</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.69531250000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.92949887592257</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.14657491813815</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.725559984336027</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.03675503746823</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.40275814802511</v>
+      </c>
+      <c r="J6" t="n">
+        <v>24.75082077295467</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.21411657218602</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.7447757442523</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21.72989108843703</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.968121313613871</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28.99809007128766</v>
+      </c>
+      <c r="P6" t="n">
+        <v>18.39302082822814</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>17.81567225187094</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Marker 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39.9729991251797</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.02764892578126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.26350632319487</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.74647657458805</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.51483639086079</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.32165826097568</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.40275814802511</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31.26460060405303</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.43504463221122</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22.58995302623425</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.67351953550372</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24.10106251589837</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15.4732011216487</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27.85985614283636</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>23.26172566052009</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marker 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40.05396660712207</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32.67608642578126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.99701676670199</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.00950789718274</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.69214672524482</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.01688680190474</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24.75082077295467</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.26460060405303</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.4347149147762</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.6687642164388</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17.20632466646971</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27.17490076669695</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17.18391269778203</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.6923454853519</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>34.89182721771539</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marker 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>39.95826744604032</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.60055541992188</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.43599768611231</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27.8589969195219</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.661135997703409</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.25162012660028</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.21411657218602</v>
+      </c>
+      <c r="I9" t="n">
+        <v>36.43504463221122</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.4347149147762</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.57933295206519</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21.9474014961298</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22.79871718158774</v>
+      </c>
+      <c r="O9" t="n">
+        <v>25.81825710183127</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.680719395390321</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>31.45739224393999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Marker 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>39.93195298110373</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76809692382813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.735164268845272</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.8447128731429</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.962986249726701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.11941406360944</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.7447757442523</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.58995302623425</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.6687642164388</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.57933295206519</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.433776307480066</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.6328667161542</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16.29050789659195</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.175385201615626</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19.25277308770952</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marker 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.98351980953353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.85598754882813</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.605357690125437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.803453351639933</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.11094204665745</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.58396868841886</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.72989108843703</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.67351953550372</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.20632466646971</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.9474014961298</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.433776307480066</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17.16030021132865</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.82657801718252</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13.19123126260383</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.83819069463337</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Marker 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>39.83292004093204</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32.81204223632813</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17.18626578196804</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.8715276650384</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.45582031733371</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.836168085167403</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.968121313613871</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.10106251589837</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.17490076669695</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.79871718158774</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.6328667161542</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17.16030021132865</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>24.9857108607251</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20.52941383281856</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.674369532830609</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Marker 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40.05186477080365</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.87796020507813</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.14438949874312</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.44444728543585</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24.96305879727041</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19.9088493089766</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.99809007128766</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.4732011216487</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17.18391269778203</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.81825710183127</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16.29050789659195</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.82657801718252</v>
+      </c>
+      <c r="N13" t="n">
+        <v>24.9857108607251</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>16.15510741486383</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>29.20533904279163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Marker 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>39.99719427759403</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.70217895507813</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.705068742595198</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.72571872173262</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.99943845958362</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20.99178711678273</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.39302082822814</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27.85985614283636</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.6923454853519</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.680719395390321</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9.175385201615626</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.19123126260383</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20.52941383281856</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16.15510741486383</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>28.41967786029473</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Marker 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>39.7896</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32.8965</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.23970964445575</v>
+      </c>
+      <c r="E15" t="n">
+        <v>18.7076870009113</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.12436553288269</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.301812684991384</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17.81567225187094</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.26172566052009</v>
+      </c>
+      <c r="J15" t="n">
+        <v>34.89182721771539</v>
+      </c>
+      <c r="K15" t="n">
+        <v>31.45739224393999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19.25277308770952</v>
+      </c>
+      <c r="M15" t="n">
+        <v>21.83819069463337</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.674369532830609</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.20533904279163</v>
+      </c>
+      <c r="P15" t="n">
+        <v>28.41967786029473</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/noktalar.xlsx
+++ b/data/noktalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.00455631877064</v>
+        <v>39.93932205149751</v>
       </c>
       <c r="C2" t="n">
         <v>32.81478881835938</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Self', 'Güneybatı', 'Güneydoğu', 'Güneybatı', 'Güney', 'Güney', 'Batı']</t>
+          <t>['Self', 'Batı', 'Güneybatı']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['0 km', '19.26 km', '30.39 km', '32.04 km', '11.91 km', '22.81 km', '8.68 km']</t>
+          <t>['0 km', '12.19 km', '17.55 km']</t>
         </is>
       </c>
     </row>
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.92458311726765</v>
+        <v>39.96142450166053</v>
       </c>
       <c r="C3" t="n">
-        <v>32.61428833007813</v>
+        <v>32.67471313476563</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Kuzeydoğu', 'Self', 'Güneydoğu', 'Güney', 'Doğu', 'Güneydoğu', 'Kuzeydoğu']</t>
+          <t>['Doğu', 'Self', 'Güney']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['19.26 km', '0 km', '35.89 km', '17.61 km', '19.53 km', '15.89 km', '12.68 km']</t>
+          <t>['12.19 km', '0 km', '11.15 km']</t>
         </is>
       </c>
     </row>
@@ -513,111 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.76119005174709</v>
+        <v>39.86664943990215</v>
       </c>
       <c r="C4" t="n">
-        <v>32.97683715820313</v>
+        <v>32.63214111328126</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Kuzeybatı', 'Kuzeybatı', 'Self', 'Batı', 'Kuzeybatı', 'Batı', 'Kuzeybatı']</t>
+          <t>['Kuzeydoğu', 'Kuzey', 'Self']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['30.39 km', '35.89 km', '0 km', '31.93 km', '19.25 km', '22.06 km', '35.64 km']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Marker 4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>39.7664668636658</v>
-      </c>
-      <c r="C5" t="n">
-        <v>32.60330200195313</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['Kuzeydoğu', 'Kuzey', 'Doğu', 'Self', 'Kuzeydoğu', 'Kuzeydoğu', 'Kuzey']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['32.04 km', '17.61 km', '31.93 km', '0 km', '25.09 km', '11.65 km', '28.64 km']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Marker 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>39.8993089895045</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32.84088134765626</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['Kuzey', 'Batı', 'Güneydoğu', 'Güneybatı', 'Self', 'Güneybatı', 'Kuzeybatı']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['11.91 km', '19.53 km', '19.25 km', '25.09 km', '0 km', '13.84 km', '16.42 km']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Marker 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>39.81077611702234</v>
-      </c>
-      <c r="C7" t="n">
-        <v>32.72689819335938</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['Kuzey', 'Kuzeybatı', 'Doğu', 'Güneybatı', 'Kuzeydoğu', 'Self', 'Kuzey']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['22.81 km', '15.89 km', '22.06 km', '11.65 km', '13.84 km', '0 km', '22.16 km']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Marker 7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>40.00981443361363</v>
-      </c>
-      <c r="C8" t="n">
-        <v>32.71316528320313</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['Doğu', 'Güneybatı', 'Güneydoğu', 'Güney', 'Güneydoğu', 'Güney', 'Self']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['8.68 km', '12.68 km', '35.64 km', '28.64 km', '16.42 km', '22.16 km', '0 km']</t>
+          <t>['17.55 km', '11.15 km', '0 km']</t>
         </is>
       </c>
     </row>
